--- a/data/trans_orig/Q5403-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>12929</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8136</v>
+        <v>7362</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21246</v>
+        <v>20099</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1002353328374553</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06307118692989265</v>
+        <v>0.05707585628796116</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1647069181369631</v>
+        <v>0.1558153020637015</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -765,19 +765,19 @@
         <v>35406</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24656</v>
+        <v>24630</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47995</v>
+        <v>48413</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1300692469193639</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09057820115883168</v>
+        <v>0.09048201591436136</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1763143394153351</v>
+        <v>0.1778502919944512</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -786,19 +786,19 @@
         <v>48336</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35501</v>
+        <v>36276</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61801</v>
+        <v>63577</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1204773495423868</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0884872754323391</v>
+        <v>0.09041801871092567</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1540403765770097</v>
+        <v>0.1584652703620211</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>9940</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5266</v>
+        <v>5460</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17262</v>
+        <v>17223</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07705673465627613</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04082612198628163</v>
+        <v>0.04232769066921956</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1338236836068717</v>
+        <v>0.1335219490455513</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -836,19 +836,19 @@
         <v>41335</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29965</v>
+        <v>31614</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54217</v>
+        <v>55410</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1518469754581068</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1100802218619748</v>
+        <v>0.1161388581433005</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1991737627421956</v>
+        <v>0.2035558323979578</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -857,19 +857,19 @@
         <v>51274</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>38109</v>
+        <v>38338</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>64622</v>
+        <v>65254</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1278011760165382</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0949858807800659</v>
+        <v>0.09555827115663648</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1610712666216423</v>
+        <v>0.1626449547503603</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>106122</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>96187</v>
+        <v>97157</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>112744</v>
+        <v>113896</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8227079325062685</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7456910534662172</v>
+        <v>0.7532067401023397</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8740471190666358</v>
+        <v>0.8829726039574156</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>194</v>
@@ -907,19 +907,19 @@
         <v>195471</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>180630</v>
+        <v>179062</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>209508</v>
+        <v>208865</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7180837776225293</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.663561988862686</v>
+        <v>0.6578024142347277</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7696490733314906</v>
+        <v>0.7672872891717134</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>308</v>
@@ -928,19 +928,19 @@
         <v>301593</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>284281</v>
+        <v>283216</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>318085</v>
+        <v>317618</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.751721474441075</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7085714499962767</v>
+        <v>0.7059173292390764</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7928284590656285</v>
+        <v>0.7916646326023268</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>2801</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>798</v>
+        <v>819</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8198</v>
+        <v>7467</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01723155322931908</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004907391995671336</v>
+        <v>0.005039567556006309</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05043376480916534</v>
+        <v>0.04593462810370232</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -1053,19 +1053,19 @@
         <v>9606</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4373</v>
+        <v>4873</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17351</v>
+        <v>17090</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04718314201374669</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02147678373430962</v>
+        <v>0.02393299606577623</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0852214874818638</v>
+        <v>0.08394033559481187</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -1074,19 +1074,19 @@
         <v>12407</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6576</v>
+        <v>7063</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21728</v>
+        <v>21002</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03388597683606728</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01795945563547757</v>
+        <v>0.01928948268960449</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05934079963936281</v>
+        <v>0.05735755276761387</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>18133</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11121</v>
+        <v>11525</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27155</v>
+        <v>27592</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.111548959471062</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06841306749044423</v>
+        <v>0.07090094748885668</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1670532362817878</v>
+        <v>0.1697370562974189</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>17</v>
@@ -1124,19 +1124,19 @@
         <v>17728</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10403</v>
+        <v>10258</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>27647</v>
+        <v>27160</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08707522352355547</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05109636640943755</v>
+        <v>0.05038227495973865</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1357937108714241</v>
+        <v>0.1333999321389868</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>36</v>
@@ -1145,19 +1145,19 @@
         <v>35861</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>25571</v>
+        <v>26242</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>49585</v>
+        <v>49558</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09794046715891491</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06983763047592211</v>
+        <v>0.07166847294659773</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1354227814842774</v>
+        <v>0.1353481252485366</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>141621</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132177</v>
+        <v>132068</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>149283</v>
+        <v>149366</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8712194872996188</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8131198257361147</v>
+        <v>0.8124538517019092</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9183548026612464</v>
+        <v>0.9188650056296144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>174</v>
@@ -1195,19 +1195,19 @@
         <v>176262</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>165473</v>
+        <v>165771</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>185438</v>
+        <v>185294</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8657416344626978</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8127474468330222</v>
+        <v>0.8142109663683611</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9108113211186043</v>
+        <v>0.9101006502223574</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>323</v>
@@ -1216,19 +1216,19 @@
         <v>317884</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>303449</v>
+        <v>304128</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>329923</v>
+        <v>329247</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8681735560050178</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8287484303149122</v>
+        <v>0.8306025134235457</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9010511326498654</v>
+        <v>0.8992073712224556</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6142</v>
+        <v>6223</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01224116029271297</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04238609385215639</v>
+        <v>0.04294289232377997</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1341,19 +1341,19 @@
         <v>9191</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3462</v>
+        <v>4105</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16504</v>
+        <v>16482</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06292264270265086</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02370159106871349</v>
+        <v>0.02810667506863219</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1129919392187554</v>
+        <v>0.1128360026573016</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -1362,19 +1362,19 @@
         <v>10965</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5237</v>
+        <v>5300</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19187</v>
+        <v>18796</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03768212037940948</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01799714871618912</v>
+        <v>0.01821248801518446</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06593775465479888</v>
+        <v>0.06459404316833242</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>10302</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4998</v>
+        <v>5499</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17982</v>
+        <v>19130</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07109209529877805</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03448719684254867</v>
+        <v>0.03794356598861017</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1240834427349758</v>
+        <v>0.1320077337265538</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1412,19 +1412,19 @@
         <v>23322</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15423</v>
+        <v>15746</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34359</v>
+        <v>35359</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1596684529963332</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1055904420787244</v>
+        <v>0.1077989136948701</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2352266112028503</v>
+        <v>0.2420715017807891</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -1433,19 +1433,19 @@
         <v>33625</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23834</v>
+        <v>23483</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46712</v>
+        <v>45933</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1155554273414608</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0819091037801105</v>
+        <v>0.08070219904308649</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1605314408958106</v>
+        <v>0.1578552094925762</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>132840</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>124926</v>
+        <v>123864</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>138509</v>
+        <v>138105</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9166667444085089</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8620556497974901</v>
+        <v>0.8547280118863839</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9557895907928325</v>
+        <v>0.9530003651378074</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>111</v>
@@ -1483,19 +1483,19 @@
         <v>113554</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>101862</v>
+        <v>99795</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>122194</v>
+        <v>122950</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7774089043010159</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6973621476568376</v>
+        <v>0.6832104938939658</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.836563127185571</v>
+        <v>0.8417352892972219</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>243</v>
@@ -1504,19 +1504,19 @@
         <v>246394</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>231059</v>
+        <v>233652</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>257614</v>
+        <v>258273</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8467624522791297</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7940596659232562</v>
+        <v>0.8029731944990373</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8853189889425739</v>
+        <v>0.8875860949483236</v>
       </c>
     </row>
     <row r="15">
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5563</v>
+        <v>4476</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01957751443850742</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1127387303707172</v>
+        <v>0.09071714806333703</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4761</v>
+        <v>6227</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02683340125040422</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1213445155949316</v>
+        <v>0.158703080598468</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6047</v>
+        <v>6543</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02279150266129472</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06826732587244452</v>
+        <v>0.07387348861033788</v>
       </c>
     </row>
     <row r="17">
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5844</v>
+        <v>3906</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01935967249642477</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.118446671817503</v>
+        <v>0.07915999278839944</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1700,19 +1700,19 @@
         <v>6941</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2369</v>
+        <v>2543</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12711</v>
+        <v>12968</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1769033875269412</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06038417758526284</v>
+        <v>0.064812948332238</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.323972622048407</v>
+        <v>0.3305160508165896</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -1721,19 +1721,19 @@
         <v>7896</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3322</v>
+        <v>3460</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15028</v>
+        <v>14503</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08914351254365847</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03750263482968954</v>
+        <v>0.03906016105075456</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1696597758821273</v>
+        <v>0.1637339509389215</v>
       </c>
     </row>
     <row r="18">
@@ -1750,7 +1750,7 @@
         <v>47421</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>42682</v>
+        <v>43497</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>49342</v>
@@ -1759,7 +1759,7 @@
         <v>0.9610628130650678</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8650275921518308</v>
+        <v>0.8815417512930843</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -1771,19 +1771,19 @@
         <v>31241</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24950</v>
+        <v>24772</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>35886</v>
+        <v>35735</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7962632112226546</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6359031211591342</v>
+        <v>0.6313697297070801</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9146499614226231</v>
+        <v>0.9107994479789651</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>82</v>
@@ -1792,19 +1792,19 @@
         <v>78661</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>71018</v>
+        <v>71397</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>83441</v>
+        <v>83437</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8880649847950468</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8017739779145504</v>
+        <v>0.8060496802100012</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9420269289499759</v>
+        <v>0.9419811570360687</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>18470</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11313</v>
+        <v>11650</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>28383</v>
+        <v>29543</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03802034385938235</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0232876369608262</v>
+        <v>0.02398153155501793</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05842462013625331</v>
+        <v>0.06081339411703988</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>51</v>
@@ -1917,19 +1917,19 @@
         <v>55257</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>41585</v>
+        <v>41289</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>70396</v>
+        <v>70910</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0835812658361222</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06290091117990998</v>
+        <v>0.06245383343074771</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1064815178229151</v>
+        <v>0.1072591723964626</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>71</v>
@@ -1938,19 +1938,19 @@
         <v>73727</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>57341</v>
+        <v>58435</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>91416</v>
+        <v>91167</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06428282666547133</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04999621164789041</v>
+        <v>0.05094995486762132</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07970569079901896</v>
+        <v>0.07948914616077274</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>39330</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>28872</v>
+        <v>28690</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>52055</v>
+        <v>52013</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08095884530787255</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05943165291343408</v>
+        <v>0.05905633035770242</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1071520065160931</v>
+        <v>0.1070648214925801</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>83</v>
@@ -1988,19 +1988,19 @@
         <v>89326</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>72684</v>
+        <v>72589</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>110370</v>
+        <v>108468</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1351148430815141</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1099420520714499</v>
+        <v>0.1097986145070255</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1669459182451653</v>
+        <v>0.1640690738012225</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>124</v>
@@ -2009,19 +2009,19 @@
         <v>128656</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>108145</v>
+        <v>106777</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>150839</v>
+        <v>153286</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1121757500294882</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09429230866640285</v>
+        <v>0.09309880580323965</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1315169044633451</v>
+        <v>0.1336507955268555</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>428003</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>412901</v>
+        <v>411484</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>440513</v>
+        <v>440309</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8810208108327451</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.849933955885132</v>
+        <v>0.8470162461669987</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9067700514094574</v>
+        <v>0.90635049834763</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>511</v>
@@ -2059,19 +2059,19 @@
         <v>516529</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>493292</v>
+        <v>495281</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>536198</v>
+        <v>537977</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7813038910823638</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7461548711805638</v>
+        <v>0.7491639096247058</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.811055090496308</v>
+        <v>0.8137456513474688</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>956</v>
@@ -2080,19 +2080,19 @@
         <v>944533</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>919049</v>
+        <v>916967</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>971791</v>
+        <v>969550</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8235414233050404</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8013222751167315</v>
+        <v>0.7995066768156013</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8473075299400807</v>
+        <v>0.8453543151990186</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>19105</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11497</v>
+        <v>11881</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28464</v>
+        <v>28450</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1389145532728926</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08359440903471121</v>
+        <v>0.08638680956809225</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2069640435273948</v>
+        <v>0.2068599741793251</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -2445,19 +2445,19 @@
         <v>41203</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29507</v>
+        <v>30399</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53862</v>
+        <v>53429</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.191078542755963</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1368380919604735</v>
+        <v>0.1409757638489409</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2497853558400965</v>
+        <v>0.2477747147956714</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -2466,19 +2466,19 @@
         <v>60308</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46519</v>
+        <v>46624</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75530</v>
+        <v>75502</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1707644277450634</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1317185666040423</v>
+        <v>0.1320177224426635</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2138635228739785</v>
+        <v>0.2137852405522539</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>19472</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11737</v>
+        <v>11698</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29158</v>
+        <v>30009</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1415770520394847</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08534133807331845</v>
+        <v>0.08505792806827697</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2120058576885794</v>
+        <v>0.218196324377432</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -2516,19 +2516,19 @@
         <v>36907</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26729</v>
+        <v>26611</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48804</v>
+        <v>49208</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1711570422771415</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1239563218677691</v>
+        <v>0.1234091211560887</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.226328700735057</v>
+        <v>0.2282022620807453</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>51</v>
@@ -2537,19 +2537,19 @@
         <v>56379</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>44398</v>
+        <v>43412</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>72794</v>
+        <v>71919</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1596377675885353</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1257134790503271</v>
+        <v>0.1229212242486216</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2061177925619093</v>
+        <v>0.2036412471205224</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>98956</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>87797</v>
+        <v>87185</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>109233</v>
+        <v>109430</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7195083946876226</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6383692708635796</v>
+        <v>0.6339219876958879</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.794229082729102</v>
+        <v>0.7956636044337044</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>129</v>
@@ -2587,19 +2587,19 @@
         <v>137524</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>120721</v>
+        <v>122347</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>151338</v>
+        <v>150515</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6377644149668955</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.559843159332482</v>
+        <v>0.5673814804804336</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7018269031719833</v>
+        <v>0.698009311396912</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>217</v>
@@ -2608,19 +2608,19 @@
         <v>236480</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>218662</v>
+        <v>217821</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>254399</v>
+        <v>253449</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6695978046664013</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6191449635272865</v>
+        <v>0.6167651380490519</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7203354595662105</v>
+        <v>0.7176456970528431</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>10530</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4323</v>
+        <v>5129</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18426</v>
+        <v>20093</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06105536196331084</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02506284372997403</v>
+        <v>0.02973717828555686</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1068338357207133</v>
+        <v>0.1165008783414163</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -2733,19 +2733,19 @@
         <v>39542</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27893</v>
+        <v>29108</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51241</v>
+        <v>52498</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1600445973780842</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1128958788401081</v>
+        <v>0.1178139164847785</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2073962412818881</v>
+        <v>0.2124829101167406</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>45</v>
@@ -2754,19 +2754,19 @@
         <v>50072</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>37671</v>
+        <v>36911</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>66203</v>
+        <v>64740</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1193505317106228</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08979295617679661</v>
+        <v>0.08798167765274667</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1578004231338266</v>
+        <v>0.154314150136159</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>21083</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13182</v>
+        <v>13750</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>32369</v>
+        <v>31354</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1222387388278695</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07643190270553775</v>
+        <v>0.07972348655712082</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1876772948416132</v>
+        <v>0.1817966504857724</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>30</v>
@@ -2804,19 +2804,19 @@
         <v>31372</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22141</v>
+        <v>21625</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>42594</v>
+        <v>43358</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1269766755759854</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08961484533237887</v>
+        <v>0.0875279345357943</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1723990460529701</v>
+        <v>0.1754909646561696</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>48</v>
@@ -2825,19 +2825,19 @@
         <v>52454</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>39565</v>
+        <v>39282</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>68294</v>
+        <v>68241</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1250289293554167</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09430729138448773</v>
+        <v>0.09363269699184588</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1627851498501094</v>
+        <v>0.1626592771638496</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>140857</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129973</v>
+        <v>128245</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>151740</v>
+        <v>150671</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8167058992088196</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7535967648388321</v>
+        <v>0.7435804240535495</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8798059860045759</v>
+        <v>0.8736072312109571</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>170</v>
@@ -2875,19 +2875,19 @@
         <v>176154</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>161073</v>
+        <v>159707</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>190274</v>
+        <v>189408</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7129787270459305</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6519424270150821</v>
+        <v>0.6464109021188214</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7701330159094506</v>
+        <v>0.7666271693852511</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>300</v>
@@ -2896,19 +2896,19 @@
         <v>317010</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>298180</v>
+        <v>296428</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>334753</v>
+        <v>333485</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7556205389339605</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7107385588740681</v>
+        <v>0.7065622309760964</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7979124932182832</v>
+        <v>0.7948908134053601</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>13699</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6363</v>
+        <v>7340</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23146</v>
+        <v>23775</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08240525791282943</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03827962503423624</v>
+        <v>0.04415637859181149</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1392340955511224</v>
+        <v>0.1430187690097776</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -3021,19 +3021,19 @@
         <v>21294</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12758</v>
+        <v>13439</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31704</v>
+        <v>32608</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1108676602800888</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06642490590576604</v>
+        <v>0.06997114189443485</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1650616822465708</v>
+        <v>0.1697699658375754</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>31</v>
@@ -3042,19 +3042,19 @@
         <v>34993</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>24682</v>
+        <v>24150</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>48024</v>
+        <v>48157</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09766261262056859</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0688862008811606</v>
+        <v>0.06739916040453442</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1340307973003572</v>
+        <v>0.1344027550709616</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>14608</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8449</v>
+        <v>8169</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24342</v>
+        <v>23905</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08787707755583886</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05082293863011839</v>
+        <v>0.04914161624426811</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1464283525957075</v>
+        <v>0.1438045343329136</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -3092,19 +3092,19 @@
         <v>26068</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16724</v>
+        <v>16830</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37991</v>
+        <v>37523</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1357222100901121</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08707344913193057</v>
+        <v>0.08762521810080313</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1977949781142804</v>
+        <v>0.1953613888033333</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -3113,19 +3113,19 @@
         <v>40677</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27962</v>
+        <v>29175</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53234</v>
+        <v>55101</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.113524601917799</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07803962055872252</v>
+        <v>0.08142394069524155</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1485722628617237</v>
+        <v>0.1537820277791095</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>137928</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>126545</v>
+        <v>125374</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>147590</v>
+        <v>146311</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8297176645313317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7612432675069107</v>
+        <v>0.7541963197335744</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.887839643913405</v>
+        <v>0.8801458340222363</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>138</v>
@@ -3163,19 +3163,19 @@
         <v>144708</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>131395</v>
+        <v>131121</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>156912</v>
+        <v>157107</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.753410129629799</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.684095447168558</v>
+        <v>0.6826685357214216</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.81694864734128</v>
+        <v>0.8179637640478599</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>264</v>
@@ -3184,19 +3184,19 @@
         <v>282636</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>265262</v>
+        <v>265291</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>298480</v>
+        <v>298175</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7888127854616324</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7403233848293232</v>
+        <v>0.7404038113267667</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8330310092951343</v>
+        <v>0.8321808193256355</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>7318</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2162</v>
+        <v>3018</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14539</v>
+        <v>14905</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09370125880608306</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02768841124264227</v>
+        <v>0.03864386651862047</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1861608541283394</v>
+        <v>0.1908493972631788</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -3309,19 +3309,19 @@
         <v>8857</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4294</v>
+        <v>4360</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15811</v>
+        <v>16147</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1041348834853842</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05048675220910471</v>
+        <v>0.05126513780737401</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1859022889109432</v>
+        <v>0.1898536841136876</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -3330,19 +3330,19 @@
         <v>16174</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9587</v>
+        <v>9541</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26817</v>
+        <v>26168</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0991404127567056</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05876250786624504</v>
+        <v>0.05848293446773304</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1643760199569092</v>
+        <v>0.1603967227497489</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>5331</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2075</v>
+        <v>2084</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11550</v>
+        <v>11516</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06826271185592911</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0265641850592327</v>
+        <v>0.02667953958485923</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1478979042062494</v>
+        <v>0.1474634020280493</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -3380,19 +3380,19 @@
         <v>8559</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4245</v>
+        <v>4120</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16080</v>
+        <v>16610</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1006314889725863</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04991280508116804</v>
+        <v>0.04844040812300114</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.189071100782228</v>
+        <v>0.1952939175201115</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -3401,19 +3401,19 @@
         <v>13890</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8180</v>
+        <v>7569</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23017</v>
+        <v>22930</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08513688237120193</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05013995065558136</v>
+        <v>0.04639128479288578</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1410811204312991</v>
+        <v>0.1405467196428599</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>65448</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>57007</v>
+        <v>57612</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>71288</v>
+        <v>71056</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8380360293379878</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7299525423671542</v>
+        <v>0.7376961250001495</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9128169314193361</v>
+        <v>0.9098459033033379</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>59</v>
@@ -3451,19 +3451,19 @@
         <v>67635</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>58103</v>
+        <v>58591</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>74164</v>
+        <v>74347</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7952336275420294</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6831648204448174</v>
+        <v>0.688895483204637</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8720085648639168</v>
+        <v>0.8741542197892642</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>116</v>
@@ -3472,19 +3472,19 @@
         <v>133082</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>121343</v>
+        <v>122004</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>142260</v>
+        <v>142713</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8157227048720925</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.743771038672758</v>
+        <v>0.7478227154708043</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8719811315155275</v>
+        <v>0.874757101354904</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>50652</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37255</v>
+        <v>37583</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>66429</v>
+        <v>66261</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0913743321996674</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06720656963769692</v>
+        <v>0.06779811233960666</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1198355556777539</v>
+        <v>0.1195333429988591</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>101</v>
@@ -3597,19 +3597,19 @@
         <v>110896</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>89937</v>
+        <v>90507</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>131090</v>
+        <v>130376</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1498953801463763</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1215656130063885</v>
+        <v>0.1223365161357187</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1771912168866024</v>
+        <v>0.1762266414041156</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>146</v>
@@ -3618,19 +3618,19 @@
         <v>161548</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>136852</v>
+        <v>138117</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>188363</v>
+        <v>187610</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1248286718771255</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1057459968363637</v>
+        <v>0.1067236490171511</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1455489192853272</v>
+        <v>0.1449673128961615</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>60493</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>45596</v>
+        <v>44880</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>78627</v>
+        <v>77712</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1091278851769312</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08225417110543488</v>
+        <v>0.08096264691887151</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1418411776867228</v>
+        <v>0.1401901341656912</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>94</v>
@@ -3668,19 +3668,19 @@
         <v>102906</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>86241</v>
+        <v>84881</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>122881</v>
+        <v>122227</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1390956658175871</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1165702992893671</v>
+        <v>0.1147316613280929</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1660951899452532</v>
+        <v>0.1652118326776285</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>147</v>
@@ -3689,19 +3689,19 @@
         <v>163399</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>140016</v>
+        <v>139980</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>189468</v>
+        <v>189025</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.126259367747869</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.10819128029782</v>
+        <v>0.1081632442791305</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1464028682193566</v>
+        <v>0.1460602668123679</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>443189</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>425249</v>
+        <v>423309</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>463754</v>
+        <v>462073</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7994977826234014</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7671358675704119</v>
+        <v>0.7636348896246186</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8365966010744363</v>
+        <v>0.8335639570554902</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>496</v>
@@ -3739,19 +3739,19 @@
         <v>526019</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>499794</v>
+        <v>499456</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>550555</v>
+        <v>549824</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7110089540360366</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6755610821535281</v>
+        <v>0.6751035744948264</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.744173295332218</v>
+        <v>0.7431848804729709</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>897</v>
@@ -3760,19 +3760,19 @@
         <v>969208</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>935367</v>
+        <v>934679</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1003394</v>
+        <v>1001768</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7489119603750055</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7227626957901401</v>
+        <v>0.7222307579784754</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7753274867348899</v>
+        <v>0.7740713705819556</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>15461</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9454</v>
+        <v>9696</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22818</v>
+        <v>23877</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09288580029301348</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05679770505842049</v>
+        <v>0.05825226122546828</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1370820457703586</v>
+        <v>0.1434437143230189</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -4125,19 +4125,19 @@
         <v>29192</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19042</v>
+        <v>19303</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42165</v>
+        <v>40670</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1121134003732565</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07313116159566735</v>
+        <v>0.07413454615621622</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1619371303001373</v>
+        <v>0.1561943620490475</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -4146,19 +4146,19 @@
         <v>44653</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32917</v>
+        <v>32407</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59383</v>
+        <v>58198</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1046150940136106</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07711871711091417</v>
+        <v>0.0759253741593683</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1391252874766895</v>
+        <v>0.1363492015759194</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>15482</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8985</v>
+        <v>9076</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24032</v>
+        <v>24621</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09300919559562849</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05398126865501748</v>
+        <v>0.05452489462541101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1443758404717267</v>
+        <v>0.1479142274439177</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -4196,19 +4196,19 @@
         <v>49029</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36235</v>
+        <v>36957</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64211</v>
+        <v>65947</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1882994773095825</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1391621269236668</v>
+        <v>0.1419376832716568</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2466055584894201</v>
+        <v>0.2532745372055059</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>55</v>
@@ -4217,19 +4217,19 @@
         <v>64511</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50215</v>
+        <v>49748</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>81208</v>
+        <v>81232</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1511385356212653</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1176451299437386</v>
+        <v>0.1165505978473633</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1902580529148055</v>
+        <v>0.1903139941132132</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>135511</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>124889</v>
+        <v>124457</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>143681</v>
+        <v>143699</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.814105004111358</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7502885519594049</v>
+        <v>0.7476937268627138</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8631901810440966</v>
+        <v>0.8632942926350426</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>159</v>
@@ -4267,19 +4267,19 @@
         <v>182157</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>165973</v>
+        <v>165255</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>197474</v>
+        <v>196608</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.699587122317161</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.63743074149398</v>
+        <v>0.634674027229586</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.758412442607509</v>
+        <v>0.7550854769846981</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>301</v>
@@ -4288,19 +4288,19 @@
         <v>317668</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>298455</v>
+        <v>296297</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>335091</v>
+        <v>335621</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7442463703651241</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6992322455746841</v>
+        <v>0.6941779872983076</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7850643404236409</v>
+        <v>0.7863064567280827</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>6711</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2629</v>
+        <v>2561</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12711</v>
+        <v>13192</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03952991298500651</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01548506983683988</v>
+        <v>0.01508569266590052</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0748741731516875</v>
+        <v>0.07770922872920544</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -4413,19 +4413,19 @@
         <v>14327</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7853</v>
+        <v>7533</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25097</v>
+        <v>25423</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06488542642375156</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03556544222527978</v>
+        <v>0.03411626120116303</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1136607892716566</v>
+        <v>0.1151391418735228</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -4434,19 +4434,19 @@
         <v>21038</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13159</v>
+        <v>13062</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>32543</v>
+        <v>32618</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05386446853062326</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03369292080872426</v>
+        <v>0.03344321797966245</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08332139646592893</v>
+        <v>0.083514027810381</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>11451</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6609</v>
+        <v>6637</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17776</v>
+        <v>19448</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06744991739389271</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03893087092616564</v>
+        <v>0.03909564351493571</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1047112154697447</v>
+        <v>0.1145623561928608</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>31</v>
@@ -4484,19 +4484,19 @@
         <v>38044</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>27141</v>
+        <v>26760</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>53211</v>
+        <v>53010</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1722952226395591</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1229199556007008</v>
+        <v>0.1211915966948164</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2409885389321253</v>
+        <v>0.2400750273177099</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>44</v>
@@ -4505,19 +4505,19 @@
         <v>49494</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>37352</v>
+        <v>36788</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>65393</v>
+        <v>64674</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1267234499678611</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09563510681162492</v>
+        <v>0.09419208360086219</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1674295455269899</v>
+        <v>0.1655902512233928</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>151602</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>143236</v>
+        <v>143365</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>157775</v>
+        <v>158590</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8930201696211008</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8437391807185678</v>
+        <v>0.844502107235114</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9293833560801945</v>
+        <v>0.9341820909706394</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>146</v>
@@ -4555,19 +4555,19 @@
         <v>168434</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>152551</v>
+        <v>153172</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>180592</v>
+        <v>181086</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7628193509366894</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6908841918895372</v>
+        <v>0.693696097777326</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8178809591149894</v>
+        <v>0.8201157731560825</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>309</v>
@@ -4576,19 +4576,19 @@
         <v>320036</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>303374</v>
+        <v>303136</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>335782</v>
+        <v>335484</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8194120815015157</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7767505340067642</v>
+        <v>0.7761426665056007</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8597283072688217</v>
+        <v>0.8589653557748453</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>8639</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4205</v>
+        <v>4029</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15643</v>
+        <v>15889</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0554566367682307</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02699511237284221</v>
+        <v>0.02586190673944318</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1004236650783141</v>
+        <v>0.1020048109260477</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -4701,19 +4701,19 @@
         <v>22345</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13295</v>
+        <v>13791</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>34335</v>
+        <v>34553</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1213711124361222</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0722112055561136</v>
+        <v>0.07490682115561831</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1864980525600294</v>
+        <v>0.1876779584183965</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>26</v>
@@ -4722,19 +4722,19 @@
         <v>30984</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>21020</v>
+        <v>20485</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>44445</v>
+        <v>45075</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09116143281607648</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06184525321360224</v>
+        <v>0.06027135762118796</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1307666660379555</v>
+        <v>0.1326206370326242</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>8227</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3834</v>
+        <v>3680</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15627</v>
+        <v>14789</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05281498543594901</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02461031820202596</v>
+        <v>0.02362286699431556</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1003207480727097</v>
+        <v>0.09494131009060562</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -4772,19 +4772,19 @@
         <v>28311</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18513</v>
+        <v>18552</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41407</v>
+        <v>40725</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1537774960257466</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1005579188196458</v>
+        <v>0.1007688916225321</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2249086536471183</v>
+        <v>0.221204938495827</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -4793,19 +4793,19 @@
         <v>36538</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26079</v>
+        <v>25303</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51459</v>
+        <v>52444</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1075047301780618</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.076731180210011</v>
+        <v>0.07444732192153967</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1514045502739242</v>
+        <v>0.1543025418616667</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>138905</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>128854</v>
+        <v>129677</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>145033</v>
+        <v>145486</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8917283777958203</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8272009844067026</v>
+        <v>0.8324852857632264</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9310663363959795</v>
+        <v>0.9339749555991118</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>114</v>
@@ -4843,19 +4843,19 @@
         <v>133449</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>117931</v>
+        <v>119674</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>145978</v>
+        <v>145965</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7248513915381312</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6405614938039527</v>
+        <v>0.6500290334192421</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7929014736000619</v>
+        <v>0.7928293962119544</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>261</v>
@@ -4864,19 +4864,19 @@
         <v>272355</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>255065</v>
+        <v>254501</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>286659</v>
+        <v>286394</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8013338370058617</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7504621073454077</v>
+        <v>0.7488036558305133</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8434197569232419</v>
+        <v>0.842640914419192</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>7481</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3425</v>
+        <v>3412</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13313</v>
+        <v>12691</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08506365535252945</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03894504774235768</v>
+        <v>0.03880080767144362</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1513784252919108</v>
+        <v>0.1443099947955757</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -4989,19 +4989,19 @@
         <v>4892</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11217</v>
+        <v>12021</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04591782597122777</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01174864369901031</v>
+        <v>0.0118118547622027</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.105293045393941</v>
+        <v>0.112834095658551</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -5010,19 +5010,19 @@
         <v>12373</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6454</v>
+        <v>6303</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20526</v>
+        <v>19771</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06361972663976363</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03318410623620625</v>
+        <v>0.03241022646341988</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1055433399673683</v>
+        <v>0.101659451567482</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>5800</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2651</v>
+        <v>2154</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12489</v>
+        <v>12234</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06594861347593367</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03014556714877552</v>
+        <v>0.02449234199041329</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1420084213179348</v>
+        <v>0.1391109613591222</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -5060,19 +5060,19 @@
         <v>8019</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3172</v>
+        <v>3465</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15620</v>
+        <v>15558</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07527344644496492</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02977046253475531</v>
+        <v>0.03252522013380913</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1466209461359182</v>
+        <v>0.1460352218049932</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -5081,19 +5081,19 @@
         <v>13819</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7513</v>
+        <v>7732</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22845</v>
+        <v>22587</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07105671966774851</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03862911056848168</v>
+        <v>0.03975650693488112</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1174675311824251</v>
+        <v>0.1161375551013052</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>74664</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>66802</v>
+        <v>68278</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>79794</v>
+        <v>80787</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8489877311715369</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7595857616740185</v>
+        <v>0.7763680283470367</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9073170016713814</v>
+        <v>0.9186033196281504</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>77</v>
@@ -5131,19 +5131,19 @@
         <v>93625</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>85009</v>
+        <v>84804</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>99474</v>
+        <v>100024</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8788087275838073</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7979336542203189</v>
+        <v>0.796013606147439</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9337147742887812</v>
+        <v>0.9388709817481193</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>154</v>
@@ -5152,19 +5152,19 @@
         <v>168289</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>156820</v>
+        <v>157697</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>176817</v>
+        <v>177525</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8653235536924878</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8063523327785315</v>
+        <v>0.8108623762593747</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9091726266584795</v>
+        <v>0.9128164572066395</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>38291</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27099</v>
+        <v>29055</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>50288</v>
+        <v>50444</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06602726522237409</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04672766168028947</v>
+        <v>0.05010029899256053</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08671401391071483</v>
+        <v>0.08698177662038145</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>55</v>
@@ -5277,19 +5277,19 @@
         <v>70756</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>53956</v>
+        <v>53115</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>92428</v>
+        <v>88887</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09167354424162394</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06990690246756004</v>
+        <v>0.06881742349713199</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.119752417675223</v>
+        <v>0.1151651895813582</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>98</v>
@@ -5298,19 +5298,19 @@
         <v>109047</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>88810</v>
+        <v>89982</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>128678</v>
+        <v>132953</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08067072827193425</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06569951957281259</v>
+        <v>0.06656695168671946</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09519286909985941</v>
+        <v>0.09835568793858113</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>40959</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30659</v>
+        <v>30999</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>53530</v>
+        <v>54305</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07062737481584708</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0528671655325761</v>
+        <v>0.05345268972579165</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09230404543795968</v>
+        <v>0.09363939535447204</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>99</v>
@@ -5348,19 +5348,19 @@
         <v>123403</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>102374</v>
+        <v>101359</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>147581</v>
+        <v>147335</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1598851539808479</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1326387894096397</v>
+        <v>0.1313237357876584</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1912112048951869</v>
+        <v>0.190891536717811</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>143</v>
@@ -5369,19 +5369,19 @@
         <v>164362</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>140038</v>
+        <v>140703</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>191362</v>
+        <v>190263</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1215916098266039</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1035969482618933</v>
+        <v>0.1040891034223262</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1415651529997849</v>
+        <v>0.1407522016769738</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>500683</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>483989</v>
+        <v>485245</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>515790</v>
+        <v>515469</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8633453599617789</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8345595852210583</v>
+        <v>0.8367245862132784</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8893950428734291</v>
+        <v>0.8888405593506886</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>496</v>
@@ -5419,19 +5419,19 @@
         <v>577665</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>549376</v>
+        <v>550605</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>602814</v>
+        <v>603671</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7484413017775281</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7117893203187344</v>
+        <v>0.7133812053304842</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7810247635359171</v>
+        <v>0.7821351208777774</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1025</v>
@@ -5440,19 +5440,19 @@
         <v>1078348</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1047127</v>
+        <v>1043516</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1108768</v>
+        <v>1107667</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7977376619014619</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7746408051003005</v>
+        <v>0.7719692982513067</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8202413234729463</v>
+        <v>0.8194266395227806</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>10732</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6692</v>
+        <v>6677</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16826</v>
+        <v>16135</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1595225349356325</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09947414017960761</v>
+        <v>0.09924321442381819</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2501046020925121</v>
+        <v>0.2398357259999861</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>72</v>
@@ -5805,19 +5805,19 @@
         <v>40268</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32753</v>
+        <v>32767</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47768</v>
+        <v>49175</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2815671481487074</v>
+        <v>0.2815671481487075</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2290207908494141</v>
+        <v>0.2291171012007361</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3340105083898037</v>
+        <v>0.343846875933433</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -5826,19 +5826,19 @@
         <v>51000</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42242</v>
+        <v>41422</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61207</v>
+        <v>61547</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2425219642661493</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2008754183123097</v>
+        <v>0.1969774105991974</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2910612814460593</v>
+        <v>0.2926756588785756</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>11479</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7176</v>
+        <v>7065</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17724</v>
+        <v>17679</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1706158747915194</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.10667074270622</v>
+        <v>0.105014765813936</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2634464839007605</v>
+        <v>0.2627757919534215</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -5876,19 +5876,19 @@
         <v>33401</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26952</v>
+        <v>26556</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42208</v>
+        <v>40870</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.233555496989847</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1884575206775774</v>
+        <v>0.1856859688653253</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2951344056550801</v>
+        <v>0.2857809818942725</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>81</v>
@@ -5897,19 +5897,19 @@
         <v>44880</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36448</v>
+        <v>36832</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54535</v>
+        <v>54475</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2134195068995514</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1733234605992847</v>
+        <v>0.1751468575846725</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.259330542513824</v>
+        <v>0.2590457367681636</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>45066</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38429</v>
+        <v>37888</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51281</v>
+        <v>51208</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6698615902728482</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5712084277575292</v>
+        <v>0.5631682370302015</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7622352763286162</v>
+        <v>0.7611564817253205</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>129</v>
@@ -5947,19 +5947,19 @@
         <v>69344</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>60549</v>
+        <v>59778</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>77790</v>
+        <v>77531</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4848773548614456</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4233785452914071</v>
+        <v>0.4179896205313808</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5439363386230934</v>
+        <v>0.5421283887247963</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>190</v>
@@ -5968,19 +5968,19 @@
         <v>114410</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>103085</v>
+        <v>103815</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>124977</v>
+        <v>126267</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5440585288342992</v>
+        <v>0.5440585288342994</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4902043022496695</v>
+        <v>0.4936736510704023</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5943099209729902</v>
+        <v>0.6004405246483996</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>19892</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14329</v>
+        <v>13826</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27806</v>
+        <v>27394</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09956441897767183</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07172302675692856</v>
+        <v>0.06920507764983556</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1391797216019152</v>
+        <v>0.1371168624207903</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>96</v>
@@ -6093,19 +6093,19 @@
         <v>49021</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>40284</v>
+        <v>40447</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59549</v>
+        <v>59932</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.162141857633145</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1332426089498254</v>
+        <v>0.1337821888633572</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1969631823153872</v>
+        <v>0.1982278629042914</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>130</v>
@@ -6114,19 +6114,19 @@
         <v>68913</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>58431</v>
+        <v>58225</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>80969</v>
+        <v>82775</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1372432468558615</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1163665497456067</v>
+        <v>0.1159574045306379</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1612522419013572</v>
+        <v>0.1648499535641612</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>22965</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16041</v>
+        <v>16809</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30772</v>
+        <v>32921</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1149448574449682</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08028817287764757</v>
+        <v>0.08413588236580768</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.154021195312257</v>
+        <v>0.164781013159469</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>111</v>
@@ -6164,19 +6164,19 @@
         <v>59110</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>48874</v>
+        <v>50351</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>69212</v>
+        <v>70493</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1955108329445193</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1616530828306241</v>
+        <v>0.1665397012934125</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2289244333860778</v>
+        <v>0.233160267460618</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>145</v>
@@ -6185,19 +6185,19 @@
         <v>82075</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>69972</v>
+        <v>68589</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>94941</v>
+        <v>94788</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1634548570376174</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1393517024154285</v>
+        <v>0.1365968425388783</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1890786067911555</v>
+        <v>0.1887746777930805</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>156932</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>145990</v>
+        <v>145661</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>166270</v>
+        <v>166005</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7854907235773602</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7307250810056597</v>
+        <v>0.7290757850574701</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.832230530777713</v>
+        <v>0.8309056780412917</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>361</v>
@@ -6235,19 +6235,19 @@
         <v>194205</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>181701</v>
+        <v>181112</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>205933</v>
+        <v>206406</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6423473094223356</v>
+        <v>0.6423473094223358</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.600989762622925</v>
+        <v>0.5990417939496724</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6811376079137238</v>
+        <v>0.6827018099861712</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>586</v>
@@ -6256,19 +6256,19 @@
         <v>351137</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>335109</v>
+        <v>333845</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>366130</v>
+        <v>365381</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.699301896106521</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6673808768092804</v>
+        <v>0.6648652810085062</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7291615505474885</v>
+        <v>0.7276692838366162</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>12403</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7835</v>
+        <v>7278</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20261</v>
+        <v>19456</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05408773804978274</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03416800525295434</v>
+        <v>0.03173993808697721</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08835578046571833</v>
+        <v>0.08484388297584762</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>55</v>
@@ -6381,19 +6381,19 @@
         <v>31231</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23707</v>
+        <v>24166</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>40254</v>
+        <v>40835</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1320504225288353</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1002365558207119</v>
+        <v>0.1021782083830762</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1702021513022319</v>
+        <v>0.172658245687067</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>74</v>
@@ -6402,19 +6402,19 @@
         <v>43634</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>34551</v>
+        <v>34590</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>54044</v>
+        <v>54978</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09367112411494427</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0741718703464308</v>
+        <v>0.07425545970269612</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.116019042104546</v>
+        <v>0.1180236362938338</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>13631</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8993</v>
+        <v>9044</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20156</v>
+        <v>20055</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05944270530892565</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03921858144414547</v>
+        <v>0.03943964343334824</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0878964640324663</v>
+        <v>0.08745442130158838</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -6452,19 +6452,19 @@
         <v>35117</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27387</v>
+        <v>27949</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43517</v>
+        <v>43844</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1484807044506299</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1157982230566372</v>
+        <v>0.1181745551663514</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.183998237708664</v>
+        <v>0.1853796950023877</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>90</v>
@@ -6473,19 +6473,19 @@
         <v>48748</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40138</v>
+        <v>39864</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59032</v>
+        <v>59573</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1046492745547879</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08616579322600348</v>
+        <v>0.08557801061751841</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.126725933943743</v>
+        <v>0.1278886842396419</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>203280</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>194371</v>
+        <v>194167</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>210215</v>
+        <v>210154</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8864695566412916</v>
+        <v>0.8864695566412917</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8476201451674752</v>
+        <v>0.8467280072254788</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9167135515123844</v>
+        <v>0.9164472983355016</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>327</v>
@@ -6523,19 +6523,19 @@
         <v>170161</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>160626</v>
+        <v>159071</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>181164</v>
+        <v>179936</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7194688730205349</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6791542128620881</v>
+        <v>0.6725779285899924</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7659924470985456</v>
+        <v>0.7607980577618235</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>614</v>
@@ -6544,19 +6544,19 @@
         <v>373441</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>359387</v>
+        <v>359053</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>385052</v>
+        <v>385991</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8016796013302678</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.771509235416886</v>
+        <v>0.7707933438988595</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8266051081604899</v>
+        <v>0.8286226652866024</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>5205</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2114</v>
+        <v>2254</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10147</v>
+        <v>9852</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02459540220381229</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009992000388295921</v>
+        <v>0.01065142363893637</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04795330670178095</v>
+        <v>0.04655775606967318</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -6669,19 +6669,19 @@
         <v>15838</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11007</v>
+        <v>10857</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22978</v>
+        <v>22898</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07600491175101713</v>
+        <v>0.07600491175101716</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05282355420882814</v>
+        <v>0.05210148916119414</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1102739344693343</v>
+        <v>0.1098902750686041</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -6690,19 +6690,19 @@
         <v>21042</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14536</v>
+        <v>15332</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28880</v>
+        <v>29970</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05010239399467479</v>
+        <v>0.05010239399467478</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.034610617668479</v>
+        <v>0.03650555624399259</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06876564808342364</v>
+        <v>0.07136071506433804</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>19785</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12800</v>
+        <v>13435</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28493</v>
+        <v>27892</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09349690228478481</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0604913473153857</v>
+        <v>0.0634929226688466</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1346531030725211</v>
+        <v>0.1318096868864347</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -6740,19 +6740,19 @@
         <v>24646</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18673</v>
+        <v>17318</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33244</v>
+        <v>32147</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.118275076724069</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08961226910076538</v>
+        <v>0.08310794433073954</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1595411899575347</v>
+        <v>0.1542745062431857</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>72</v>
@@ -6761,19 +6761,19 @@
         <v>44430</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34785</v>
+        <v>35293</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>55709</v>
+        <v>55450</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1057906723981732</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08282503351798905</v>
+        <v>0.08403429996937307</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1326467712196818</v>
+        <v>0.1320291487187971</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>186617</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>176870</v>
+        <v>177888</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>194139</v>
+        <v>193985</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8819076955114029</v>
+        <v>0.8819076955114028</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8358464210704638</v>
+        <v>0.8406575522180104</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9174573613320759</v>
+        <v>0.9167293948262754</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>322</v>
@@ -6811,19 +6811,19 @@
         <v>167892</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>158203</v>
+        <v>158600</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>175350</v>
+        <v>176240</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8057200115249138</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7592217196096303</v>
+        <v>0.7611288695428435</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8415124755229185</v>
+        <v>0.8457842905334437</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>588</v>
@@ -6832,19 +6832,19 @@
         <v>354508</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>341819</v>
+        <v>341290</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>366308</v>
+        <v>365852</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8441069336071522</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8138926457387986</v>
+        <v>0.8126349347483816</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8722028854264504</v>
+        <v>0.8711168208605882</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>48232</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>38428</v>
+        <v>38610</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>59879</v>
+        <v>60539</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.06812514594886741</v>
+        <v>0.06812514594886743</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05427789412088778</v>
+        <v>0.05453568859075811</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08457704860532407</v>
+        <v>0.08550829985288715</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>251</v>
@@ -6957,19 +6957,19 @@
         <v>136358</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>121897</v>
+        <v>121787</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>154518</v>
+        <v>154421</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1531708158016418</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1369269632619907</v>
+        <v>0.1368038613919705</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1735702236247632</v>
+        <v>0.1734615023919381</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>329</v>
@@ -6978,19 +6978,19 @@
         <v>184589</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>166852</v>
+        <v>165292</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>208551</v>
+        <v>205738</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1154969429288149</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1043984787921764</v>
+        <v>0.1034224030592463</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1304899826646175</v>
+        <v>0.1287296768191986</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>67859</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>54541</v>
+        <v>55590</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>81420</v>
+        <v>83091</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09584758972979095</v>
+        <v>0.09584758972979096</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07703748379406022</v>
+        <v>0.07851837197195137</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1150020794125752</v>
+        <v>0.1173626847700453</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>289</v>
@@ -7028,19 +7028,19 @@
         <v>152274</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>137779</v>
+        <v>136201</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>170902</v>
+        <v>168432</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1710496583319197</v>
+        <v>0.1710496583319196</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1547678737958967</v>
+        <v>0.1529943647516698</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1919741524896641</v>
+        <v>0.189200399876385</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>388</v>
@@ -7049,19 +7049,19 @@
         <v>220133</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>201041</v>
+        <v>200996</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>242224</v>
+        <v>246226</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1377363435306513</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1257909059430038</v>
+        <v>0.1257628786392964</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1515587050081693</v>
+        <v>0.1540631127619723</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>591895</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>575685</v>
+        <v>574462</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>608120</v>
+        <v>608169</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8360272643213418</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8131317366138099</v>
+        <v>0.8114037602559689</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8589441958219763</v>
+        <v>0.8590134239262394</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1139</v>
@@ -7099,19 +7099,19 @@
         <v>601601</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>580959</v>
+        <v>581672</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>622020</v>
+        <v>622274</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6757795258664386</v>
+        <v>0.6757795258664385</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6525923778484954</v>
+        <v>0.6533928964517426</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6987163155377959</v>
+        <v>0.6990014773448842</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1978</v>
@@ -7120,19 +7120,19 @@
         <v>1193496</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1164044</v>
+        <v>1164609</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1218067</v>
+        <v>1219724</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7467667135405336</v>
+        <v>0.7467667135405338</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7283384240326444</v>
+        <v>0.7286919475185664</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7621409950167535</v>
+        <v>0.763177430999269</v>
       </c>
     </row>
     <row r="23">
